--- a/Feature-Analysis/Resize Feature/s_16_left.xlsx
+++ b/Feature-Analysis/Resize Feature/s_16_left.xlsx
@@ -1687,7 +1687,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="0">
-        <v>737791.45592592587</v>
+        <v>738157.45592592587</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -2382,7 +2382,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="0">
-        <v>737791.4565162037</v>
+        <v>738157.4565162037</v>
       </c>
       <c r="C3" s="0">
         <v>51.000005006790161</v>
@@ -3077,7 +3077,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="0">
-        <v>737791.45679398149</v>
+        <v>738157.45679398149</v>
       </c>
       <c r="C4" s="0">
         <v>75.000005587935448</v>
@@ -3772,7 +3772,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="0">
-        <v>737791.45706018514</v>
+        <v>738157.45706018514</v>
       </c>
       <c r="C5" s="0">
         <v>98.000001534819603</v>
@@ -4467,7 +4467,7 @@
         <v>1</v>
       </c>
       <c r="B6" s="0">
-        <v>737791.45745370374</v>
+        <v>738157.45745370374</v>
       </c>
       <c r="C6" s="0">
         <v>132.00000822544098</v>
@@ -5162,7 +5162,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="0">
-        <v>737791.45784722222</v>
+        <v>738157.45784722222</v>
       </c>
       <c r="C7" s="0">
         <v>166.00000485777855</v>
@@ -5857,7 +5857,7 @@
         <v>1</v>
       </c>
       <c r="B8" s="0">
-        <v>737791.45825231483</v>
+        <v>738157.45825231483</v>
       </c>
       <c r="C8" s="0">
         <v>201.00000612437725</v>
@@ -6552,7 +6552,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="0">
-        <v>737791.45864583331</v>
+        <v>738157.45864583331</v>
       </c>
       <c r="C9" s="0">
         <v>235.00000275671482</v>
@@ -7247,7 +7247,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="0">
-        <v>737791.4590393519</v>
+        <v>738157.4590393519</v>
       </c>
       <c r="C10" s="0">
         <v>269.0000094473362</v>
@@ -7942,7 +7942,7 @@
         <v>1</v>
       </c>
       <c r="B11" s="0">
-        <v>737791.45929398143</v>
+        <v>738157.45929398143</v>
       </c>
       <c r="C11" s="0">
         <v>291.00000075995922</v>
@@ -8637,7 +8637,7 @@
         <v>1</v>
       </c>
       <c r="B12" s="0">
-        <v>737791.45968750003</v>
+        <v>738157.45968750003</v>
       </c>
       <c r="C12" s="0">
         <v>325.0000074505806</v>
@@ -9332,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="B13" s="0">
-        <v>737791.46008101851</v>
+        <v>738157.46008101851</v>
       </c>
       <c r="C13" s="0">
         <v>359.00000408291817</v>
@@ -10027,7 +10027,7 @@
         <v>1</v>
       </c>
       <c r="B14" s="0">
-        <v>737791.46047453699</v>
+        <v>738157.46047453699</v>
       </c>
       <c r="C14" s="0">
         <v>393.00000071525574</v>
@@ -10722,7 +10722,7 @@
         <v>1</v>
       </c>
       <c r="B15" s="0">
-        <v>737791.46087962959</v>
+        <v>738157.46087962959</v>
       </c>
       <c r="C15" s="0">
         <v>428.00000198185444</v>
@@ -11417,7 +11417,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="0">
-        <v>737791.46127314819</v>
+        <v>738157.46127314819</v>
       </c>
       <c r="C16" s="0">
         <v>462.00000867247581</v>
@@ -12112,7 +12112,7 @@
         <v>1</v>
       </c>
       <c r="B17" s="0">
-        <v>737791.46153935185</v>
+        <v>738157.46153935185</v>
       </c>
       <c r="C17" s="0">
         <v>485.00000461935997</v>
@@ -12807,7 +12807,7 @@
         <v>1</v>
       </c>
       <c r="B18" s="0">
-        <v>737791.46193287033</v>
+        <v>738157.46193287033</v>
       </c>
       <c r="C18" s="0">
         <v>519.00000125169754</v>
@@ -13502,7 +13502,7 @@
         <v>1</v>
       </c>
       <c r="B19" s="0">
-        <v>737791.46232638892</v>
+        <v>738157.46232638892</v>
       </c>
       <c r="C19" s="0">
         <v>553.00000794231892</v>
@@ -14197,7 +14197,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="0">
-        <v>737791.4627199074</v>
+        <v>738157.4627199074</v>
       </c>
       <c r="C20" s="0">
         <v>587.00000457465649</v>
@@ -14892,7 +14892,7 @@
         <v>1</v>
       </c>
       <c r="B21" s="0">
-        <v>737791.46311342588</v>
+        <v>738157.46311342588</v>
       </c>
       <c r="C21" s="0">
         <v>621.00000120699406</v>
@@ -15587,7 +15587,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="0">
-        <v>737791.46350694448</v>
+        <v>738157.46350694448</v>
       </c>
       <c r="C22" s="0">
         <v>655.00000789761543</v>
@@ -16282,7 +16282,7 @@
         <v>2</v>
       </c>
       <c r="B23" s="0">
-        <v>737791.46379629627</v>
+        <v>738157.46379629627</v>
       </c>
       <c r="C23" s="0">
         <v>680.00000305473804</v>
@@ -16977,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="B24" s="0">
-        <v>737791.46420138888</v>
+        <v>738157.46420138888</v>
       </c>
       <c r="C24" s="0">
         <v>715.00000432133675</v>
@@ -17672,7 +17672,7 @@
         <v>2</v>
       </c>
       <c r="B25" s="0">
-        <v>737791.46458333335</v>
+        <v>738157.46458333335</v>
       </c>
       <c r="C25" s="0">
         <v>748.00000637769699</v>
@@ -18367,7 +18367,7 @@
         <v>2</v>
       </c>
       <c r="B26" s="0">
-        <v>737791.46511574078</v>
+        <v>738157.46511574078</v>
       </c>
       <c r="C26" s="0">
         <v>794.00000832974911</v>
@@ -19062,7 +19062,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="0">
-        <v>737791.46539351856</v>
+        <v>738157.46539351856</v>
       </c>
       <c r="C27" s="0">
         <v>818.00000891089439</v>
@@ -19757,7 +19757,7 @@
         <v>2</v>
       </c>
       <c r="B28" s="0">
-        <v>737791.46567129635</v>
+        <v>738157.46567129635</v>
       </c>
       <c r="C28" s="0">
         <v>842.00000949203968</v>
@@ -20452,7 +20452,7 @@
         <v>2</v>
       </c>
       <c r="B29" s="0">
-        <v>737791.4660532407</v>
+        <v>738157.4660532407</v>
       </c>
       <c r="C29" s="0">
         <v>875.00000149011612</v>
@@ -21147,7 +21147,7 @@
         <v>2</v>
       </c>
       <c r="B30" s="0">
-        <v>737791.46645833331</v>
+        <v>738157.46645833331</v>
       </c>
       <c r="C30" s="0">
         <v>910.00000275671482</v>
@@ -21842,7 +21842,7 @@
         <v>2</v>
       </c>
       <c r="B31" s="0">
-        <v>737791.46684027778</v>
+        <v>738157.46684027778</v>
       </c>
       <c r="C31" s="0">
         <v>943.00000481307507</v>
@@ -22537,7 +22537,7 @@
         <v>2</v>
       </c>
       <c r="B32" s="0">
-        <v>737791.46723379625</v>
+        <v>738157.46723379625</v>
       </c>
       <c r="C32" s="0">
         <v>977.00000144541264</v>
@@ -23232,7 +23232,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="0">
-        <v>737791.46762731485</v>
+        <v>738157.46762731485</v>
       </c>
       <c r="C33" s="0">
         <v>1011.000008136034</v>
@@ -23927,7 +23927,7 @@
         <v>2</v>
       </c>
       <c r="B34" s="0">
-        <v>737791.46789351851</v>
+        <v>738157.46789351851</v>
       </c>
       <c r="C34" s="0">
         <v>1034.0000040829182</v>
@@ -24622,7 +24622,7 @@
         <v>2</v>
       </c>
       <c r="B35" s="0">
-        <v>737791.46828703699</v>
+        <v>738157.46828703699</v>
       </c>
       <c r="C35" s="0">
         <v>1068.0000007152557</v>
@@ -25317,7 +25317,7 @@
         <v>2</v>
       </c>
       <c r="B36" s="0">
-        <v>737791.46868055558</v>
+        <v>738157.46868055558</v>
       </c>
       <c r="C36" s="0">
         <v>1102.0000074058771</v>
@@ -26012,7 +26012,7 @@
         <v>2</v>
       </c>
       <c r="B37" s="0">
-        <v>737791.46906250005</v>
+        <v>738157.46906250005</v>
       </c>
       <c r="C37" s="0">
         <v>1135.0000094622374</v>
@@ -26707,7 +26707,7 @@
         <v>2</v>
       </c>
       <c r="B38" s="0">
-        <v>737791.46945601853</v>
+        <v>738157.46945601853</v>
       </c>
       <c r="C38" s="0">
         <v>1169.0000060945749</v>
@@ -27402,7 +27402,7 @@
         <v>2</v>
       </c>
       <c r="B39" s="0">
-        <v>737791.46984953701</v>
+        <v>738157.46984953701</v>
       </c>
       <c r="C39" s="0">
         <v>1203.0000027269125</v>
@@ -28097,7 +28097,7 @@
         <v>2</v>
       </c>
       <c r="B40" s="0">
-        <v>737791.47024305561</v>
+        <v>738157.47024305561</v>
       </c>
       <c r="C40" s="0">
         <v>1237.0000094175339</v>
